--- a/my-app/Backend/orders.xlsx
+++ b/my-app/Backend/orders.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -428,9 +428,32 @@
         <v>Date</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>me230003011@iiti.ac.in</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="C2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Fictional Characters Miniatures</v>
+      </c>
+      <c r="E2">
+        <v>1699</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v>10/4/2025, 2:31:02 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/my-app/Backend/orders.xlsx
+++ b/my-app/Backend/orders.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -451,9 +451,55 @@
         <v>10/4/2025, 2:31:02 pm</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>me230003011@iiti.ac.in</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="C3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Personalised Spotify Frame</v>
+      </c>
+      <c r="E3">
+        <v>1499</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>6/7/2025, 9:49:11 pm</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>me230003011@iiti.ac.in</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="C4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Castle Modelled Lamp</v>
+      </c>
+      <c r="E4">
+        <v>2499</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>6/7/2025, 9:53:28 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/my-app/Backend/orders.xlsx
+++ b/my-app/Backend/orders.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -497,9 +497,55 @@
         <v>6/7/2025, 9:53:28 pm</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>me230003011@iiti.ac.in</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="C5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Anime Backlighting Frame</v>
+      </c>
+      <c r="E5">
+        <v>699</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>13/7/2025, 9:11:35 pm</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>me230003011@iiti.ac.in</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="C6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Personalised Spotify Frame</v>
+      </c>
+      <c r="E6">
+        <v>1499</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v>13/7/2025, 9:12:59 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>